--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\straduca\PycharmProjects\RBS_Python\TheProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\straduca\Documents\GitHub\Python-Project-Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B0CC99-1C55-48CD-8530-FCA1776AB838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE66C390-D7D8-4193-B0B0-06683AD08E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -47,15 +47,6 @@
   </si>
   <si>
     <t>ForecastingGroup</t>
-  </si>
-  <si>
-    <t>straduca@amazon.com</t>
-  </si>
-  <si>
-    <t>straduca</t>
-  </si>
-  <si>
-    <t>Magnusbanech10!</t>
   </si>
   <si>
     <t>UK</t>
@@ -440,7 +431,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,22 +456,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>35691</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="4" t="str">
         <f>VLOOKUP(A2, Mapping!$A$1:$B$9, 2, FALSE)</f>
         <v>IT</v>
@@ -492,11 +476,8 @@
       <formula1>"3,4,5,35691,44551,328451,712115121,704403121,338851"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6CED9077-7427-4EEC-97DE-3B95718924D2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -518,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +523,7 @@
         <v>35691</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +531,7 @@
         <v>44551</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +539,7 @@
         <v>328451</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +547,7 @@
         <v>712115121</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,7 +555,7 @@
         <v>704403121</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,7 +563,7 @@
         <v>338851</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
